--- a/application/views/backend/poclain_report.xlsx
+++ b/application/views/backend/poclain_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>Stock Inward Report</t>
   </si>
@@ -74,46 +74,52 @@
     <t>checkedby</t>
   </si>
   <si>
+    <t>2019-12-11</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>2019-12-11 03:58:55.000</t>
+  </si>
+  <si>
+    <t>2019-12-14 01:34:51.000</t>
+  </si>
+  <si>
+    <t>asas</t>
+  </si>
+  <si>
+    <t>2019-12-14 01:36:53.000</t>
+  </si>
+  <si>
+    <t>2019-12-14 01:37:11.000</t>
+  </si>
+  <si>
+    <t>Checked By</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>2019-12-14 01:37:13.000</t>
+  </si>
+  <si>
+    <t>2019-12-14 01:37:14.000</t>
+  </si>
+  <si>
     <t>test</t>
   </si>
   <si>
-    <t>2019-12-11</t>
-  </si>
-  <si>
-    <t>remark test</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>2019-12-11 03:58:55.000</t>
-  </si>
-  <si>
-    <t>2019-12-14 01:34:51.000</t>
-  </si>
-  <si>
-    <t>asas</t>
-  </si>
-  <si>
-    <t>2019-12-14 01:36:53.000</t>
-  </si>
-  <si>
-    <t>2019-12-14 01:37:11.000</t>
-  </si>
-  <si>
-    <t>Checked By</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>2019-12-14 01:37:13.000</t>
+    <t>2019-12-15 01:23:46.000</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
   <si>
     <t>test2</t>
@@ -146,7 +152,40 @@
     <t>2019-12-14 01:38:50.000</t>
   </si>
   <si>
-    <t>test4</t>
+    <t>inv123</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>2019-12-15</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>msw</t>
+  </si>
+  <si>
+    <t>2019-12-15 01:12:49.000</t>
+  </si>
+  <si>
+    <t>Iner23</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>2019-12-15 01:20:11.000</t>
+  </si>
+  <si>
+    <t>2019-12-15 01:24:12.000</t>
   </si>
 </sst>
 </file>
@@ -170,11 +209,11 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="15"/>
-      <color rgb="FFBlue"/>
+      <color rgb="FFBlack"/>
       <name val="Bold"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +229,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ffff99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -197,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -208,6 +253,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -223,12 +271,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2085975" cy="895350"/>
+    <xdr:ext cx="1104900" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Paid" descr="Paid"/>
@@ -551,15 +599,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
     <col min="3" max="3" width="15" customWidth="true" style="0"/>
     <col min="4" max="4" width="15" customWidth="true" style="0"/>
     <col min="5" max="5" width="15" customWidth="true" style="0"/>
@@ -576,291 +625,405 @@
     <col min="16" max="16" width="15" customWidth="true" style="0"/>
     <col min="17" max="17" width="15" customWidth="true" style="0"/>
     <col min="18" max="18" width="15" customWidth="true" style="0"/>
-    <col min="19" max="19" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
-      <c r="C2"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="F4" s="3" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1"/>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="1" t="s">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9">
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="1" t="s">
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11"/>
+      <c r="N11" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="H16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="E14" t="s">
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
         <v>37</v>
       </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="E15" t="s">
+      <c r="K16" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16"/>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>37</v>
       </c>
-      <c r="F15">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="E16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="E17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
+      <c r="K18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="D4:H4"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/application/views/backend/poclain_report.xlsx
+++ b/application/views/backend/poclain_report.xlsx
@@ -15,66 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Stock Inward Report</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>Expense Report</t>
   </si>
   <si>
     <t>Sl.No</t>
   </si>
   <si>
-    <t>EmpCode</t>
-  </si>
-  <si>
-    <t>EmpName</t>
-  </si>
-  <si>
-    <t>EmpPhone</t>
-  </si>
-  <si>
-    <t>EmpEmail</t>
+    <t>Employee_name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Attachment</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Driver Name</t>
-  </si>
-  <si>
-    <t>Driver Phone</t>
+    <t>Payment method</t>
+  </si>
+  <si>
+    <t>Payee</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Payment_date</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Hos1156</t>
-  </si>
-  <si>
-    <t>rakeshkumar</t>
-  </si>
-  <si>
-    <t>01713047311</t>
-  </si>
-  <si>
-    <t>arunold2000@gmail.com</t>
+    <t>rakesh</t>
+  </si>
+  <si>
+    <t>transport</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>arun</t>
-  </si>
-  <si>
-    <t>7358637373</t>
-  </si>
-  <si>
-    <t>ACTIVE</t>
+    <t>dollar</t>
   </si>
 </sst>
 </file>
@@ -125,12 +116,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -163,6 +157,117 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="2700000" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1314450" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Paid" descr="Paid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="2700000" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Paid" descr="Paid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="2700000" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="476250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Paid" descr="Paid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -476,7 +581,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G1" sqref="G1"/>
@@ -493,15 +598,24 @@
     <col min="7" max="7" width="15" customWidth="true" style="0"/>
     <col min="8" max="8" width="15" customWidth="true" style="0"/>
     <col min="9" max="9" width="15" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1"/>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,67 +625,75 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5"/>
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5">
+        <v>200000</v>
+      </c>
+      <c r="M5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="R5"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="D10"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="D4:H4"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
